--- a/Experimental/Fig_sorter.xlsx
+++ b/Experimental/Fig_sorter.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveconcordia-my.sharepoint.com/personal/k_samla_live_concordia_ca/Documents/CASB-PhD/Gitbubble/fungalmicrofluidics_basement/Experimental/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_samla\OneDrive - Concordia University - Canada\CASB-PhD\Gitbubble\fungalmicrofluidics\Experimental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="11_8FB2B5589958C8D0CCB0134C1C7520E365D7DFD3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5D00C285-8885-3A47-8AAE-0872C456770A}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="21580" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="465" windowWidth="21585" windowHeight="15540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fig_autosort" sheetId="1" r:id="rId1"/>
     <sheet name="Fig_efficiency" sheetId="3" r:id="rId2"/>
     <sheet name="Fig_DropV" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="24">
   <si>
     <t>VRMS</t>
   </si>
@@ -110,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,7 +643,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
@@ -662,6 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -987,16 +987,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>650</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>650</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>650</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>650</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>650</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>650</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>650</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>650</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35">
       <c r="A14" s="9" t="s">
         <v>7</v>
       </c>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1389,13 +1389,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35">
       <c r="E16">
         <f>SUM(A16:D16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>60</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>0.133303</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>65</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>6.6650999999999905E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>70</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>0.166627999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>75</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>9.9976999999999899E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>80</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>9.9976999999999899E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>85</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>9.9976999999999996E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>90</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>9.9976999999999899E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>95</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>9.9977000000000094E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>100</v>
       </c>
@@ -1490,30 +1490,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43799623-D823-384F-8DBF-485F2DD544EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C7CFD4-00A2-984E-B498-EA3ECDA66F2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:N54"/>
+    <sheetView tabSelected="1" topLeftCell="P31" workbookViewId="0">
+      <selection activeCell="V38" sqref="V38:W52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="15.75">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
     </row>
-    <row r="3" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="15.75">
       <c r="A3" s="5"/>
       <c r="B3" s="4">
         <v>650</v>
@@ -1738,7 +1738,7 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
     </row>
-    <row r="4" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="15.75">
       <c r="A4" s="5"/>
       <c r="B4" s="4">
         <v>650</v>
@@ -1804,7 +1804,7 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
     </row>
-    <row r="5" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="15.75">
       <c r="A5" s="5"/>
       <c r="B5" s="4">
         <v>650</v>
@@ -1870,7 +1870,7 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
     </row>
-    <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="15.75">
       <c r="A6" s="5"/>
       <c r="B6" s="4">
         <v>650</v>
@@ -1936,7 +1936,7 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
     </row>
-    <row r="7" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="15.75">
       <c r="A7" s="5"/>
       <c r="B7" s="4">
         <v>650</v>
@@ -2002,7 +2002,7 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
     </row>
-    <row r="8" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="15.75">
       <c r="A8" s="5"/>
       <c r="B8" s="4">
         <v>650</v>
@@ -2068,7 +2068,7 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="15.75">
       <c r="A9" s="5"/>
       <c r="B9" s="4">
         <v>650</v>
@@ -2134,7 +2134,7 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
     </row>
-    <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="15.75">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2168,7 +2168,7 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
     </row>
-    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="15.75">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2208,7 +2208,7 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
     </row>
-    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="15.75">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2220,7 +2220,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12">
+      <c r="L12" s="11">
         <v>1</v>
       </c>
       <c r="M12">
@@ -2259,7 +2259,7 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
     </row>
-    <row r="13" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="15.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2288,7 +2288,9 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="6"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
+      <c r="T13" s="5">
+        <v>1</v>
+      </c>
       <c r="U13" s="5">
         <v>12922.117</v>
       </c>
@@ -2309,7 +2311,7 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
     </row>
-    <row r="14" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="15.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2337,12 +2339,14 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="6"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
+      <c r="T14" s="5">
+        <v>2</v>
+      </c>
       <c r="U14" s="5">
         <v>13483.948</v>
       </c>
       <c r="V14">
-        <f t="shared" ref="V14:V37" si="1">(U14*70)/1000</f>
+        <f t="shared" ref="V14:V52" si="1">(U14*70)/1000</f>
         <v>943.87635999999998</v>
       </c>
       <c r="W14" s="5" t="s">
@@ -2358,7 +2362,7 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
     </row>
-    <row r="15" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="15.75">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2386,7 +2390,9 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
+      <c r="T15" s="5">
+        <v>3</v>
+      </c>
       <c r="U15" s="5">
         <v>16854.935000000001</v>
       </c>
@@ -2407,7 +2413,7 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
     </row>
-    <row r="16" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="15.75">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2435,7 +2441,9 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
+      <c r="T16" s="5">
+        <v>4</v>
+      </c>
       <c r="U16" s="5">
         <v>17416.766</v>
       </c>
@@ -2456,7 +2464,7 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
     </row>
-    <row r="17" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="15.75">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2484,7 +2492,9 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
+      <c r="T17" s="5">
+        <v>5</v>
+      </c>
       <c r="U17" s="5">
         <v>16854.935000000001</v>
       </c>
@@ -2505,7 +2515,7 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
     </row>
-    <row r="18" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="15.75">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2533,7 +2543,9 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
+      <c r="T18" s="5">
+        <v>6</v>
+      </c>
       <c r="U18" s="5">
         <v>16293.102999999999</v>
       </c>
@@ -2554,7 +2566,7 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
     </row>
-    <row r="19" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="15.75">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2582,7 +2594,9 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+      <c r="T19" s="5">
+        <v>7</v>
+      </c>
       <c r="U19" s="5">
         <v>15945.303</v>
       </c>
@@ -2603,7 +2617,7 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
     </row>
-    <row r="20" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="15.75">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2631,7 +2645,9 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
+      <c r="T20" s="5">
+        <v>8</v>
+      </c>
       <c r="U20" s="5">
         <v>15945.303</v>
       </c>
@@ -2652,7 +2668,7 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
     </row>
-    <row r="21" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="15.75">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2680,7 +2696,9 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
+      <c r="T21" s="5">
+        <v>9</v>
+      </c>
       <c r="U21" s="5">
         <v>16293.102999999999</v>
       </c>
@@ -2701,7 +2719,7 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
     </row>
-    <row r="22" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="15.75">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2729,7 +2747,9 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
+      <c r="T22" s="5">
+        <v>10</v>
+      </c>
       <c r="U22" s="5">
         <v>29268.727999999999</v>
       </c>
@@ -2750,7 +2770,7 @@
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
     </row>
-    <row r="23" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="15.75">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2776,7 +2796,9 @@
       </c>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
+      <c r="T23" s="5">
+        <v>11</v>
+      </c>
       <c r="U23" s="5">
         <v>26379.31</v>
       </c>
@@ -2797,7 +2819,7 @@
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
     </row>
-    <row r="24" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="15.75">
       <c r="L24" s="5">
         <v>13</v>
       </c>
@@ -2811,6 +2833,9 @@
       <c r="O24" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="T24" s="5">
+        <v>12</v>
+      </c>
       <c r="U24">
         <v>18165.874</v>
       </c>
@@ -2822,7 +2847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="15.75">
       <c r="L25">
         <v>14</v>
       </c>
@@ -2836,6 +2861,9 @@
       <c r="O25" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="T25" s="5">
+        <v>13</v>
+      </c>
       <c r="U25">
         <v>19744.351999999999</v>
       </c>
@@ -2847,7 +2875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="15.75">
       <c r="L26">
         <v>15</v>
       </c>
@@ -2861,6 +2889,9 @@
       <c r="O26" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="T26" s="5">
+        <v>1</v>
+      </c>
       <c r="U26">
         <v>12708.085999999999</v>
       </c>
@@ -2872,7 +2903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="15.75">
       <c r="L27">
         <v>16</v>
       </c>
@@ -2886,6 +2917,9 @@
       <c r="O27" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="T27" s="5">
+        <v>2</v>
+      </c>
       <c r="U27">
         <v>11718.192999999999</v>
       </c>
@@ -2897,7 +2931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="15.75">
       <c r="L28">
         <v>17</v>
       </c>
@@ -2911,6 +2945,9 @@
       <c r="O28" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="T28" s="5">
+        <v>3</v>
+      </c>
       <c r="U28">
         <v>10915.576999999999</v>
       </c>
@@ -2922,7 +2959,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="15.75">
       <c r="L29">
         <v>18</v>
       </c>
@@ -2936,6 +2973,9 @@
       <c r="O29" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="T29" s="5">
+        <v>4</v>
+      </c>
       <c r="U29">
         <v>10219.976000000001</v>
       </c>
@@ -2947,8 +2987,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="16" x14ac:dyDescent="0.2">
-      <c r="L30">
+    <row r="30" spans="1:32" ht="15.75">
+      <c r="L30" s="11">
         <v>1</v>
       </c>
       <c r="M30">
@@ -2961,6 +3001,9 @@
       <c r="O30" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="T30" s="5">
+        <v>5</v>
+      </c>
       <c r="U30">
         <v>10701.546</v>
       </c>
@@ -2972,7 +3015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="15.75">
       <c r="L31">
         <v>2</v>
       </c>
@@ -2986,6 +3029,9 @@
       <c r="O31" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="T31" s="5">
+        <v>6</v>
+      </c>
       <c r="U31">
         <v>11102.853999999999</v>
       </c>
@@ -2997,7 +3043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="15.75">
       <c r="L32">
         <v>3</v>
       </c>
@@ -3011,6 +3057,9 @@
       <c r="O32" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="T32" s="5">
+        <v>7</v>
+      </c>
       <c r="U32">
         <v>10380.499</v>
       </c>
@@ -3022,7 +3071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:23" ht="15.75">
       <c r="L33">
         <v>4</v>
       </c>
@@ -3036,6 +3085,9 @@
       <c r="O33" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="T33" s="5">
+        <v>8</v>
+      </c>
       <c r="U33">
         <v>11049.346</v>
       </c>
@@ -3047,7 +3099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:23" ht="15.75">
       <c r="L34">
         <v>5</v>
       </c>
@@ -3061,6 +3113,9 @@
       <c r="O34" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="T34" s="5">
+        <v>9</v>
+      </c>
       <c r="U34">
         <v>10407.253000000001</v>
       </c>
@@ -3072,7 +3127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="12:23" ht="15.75">
       <c r="L35">
         <v>6</v>
       </c>
@@ -3086,6 +3141,9 @@
       <c r="O35" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="T35" s="5">
+        <v>10</v>
+      </c>
       <c r="U35">
         <v>14527.348</v>
       </c>
@@ -3097,7 +3155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:23" ht="15.75">
       <c r="L36">
         <v>7</v>
       </c>
@@ -3111,6 +3169,9 @@
       <c r="O36" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="T36" s="5">
+        <v>11</v>
+      </c>
       <c r="U36">
         <v>13697.978999999999</v>
       </c>
@@ -3122,7 +3183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:23" ht="15.75">
       <c r="L37">
         <v>8</v>
       </c>
@@ -3136,6 +3197,9 @@
       <c r="O37" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="T37" s="5">
+        <v>12</v>
+      </c>
       <c r="U37">
         <v>14099.287</v>
       </c>
@@ -3147,7 +3211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="12:23" ht="15.75">
       <c r="L38">
         <v>9</v>
       </c>
@@ -3161,8 +3225,21 @@
       <c r="O38" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="T38" s="5">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>10281.032999999999</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>719.67230999999992</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="12:23" ht="15.75">
       <c r="L39">
         <v>10</v>
       </c>
@@ -3176,8 +3253,21 @@
       <c r="O39" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="T39" s="5">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>10064.019</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>704.48133000000007</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="12:23" ht="15.75">
       <c r="L40">
         <v>11</v>
       </c>
@@ -3191,8 +3281,21 @@
       <c r="O40" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="T40" s="5">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>9765.625</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>683.59375</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="12:23" ht="15.75">
       <c r="L41">
         <v>12</v>
       </c>
@@ -3206,8 +3309,21 @@
       <c r="O41" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="T41" s="5">
+        <v>4</v>
+      </c>
+      <c r="U41">
+        <v>8409.2880000000005</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>588.65016000000003</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="12:23" ht="15.75">
       <c r="L42">
         <v>13</v>
       </c>
@@ -3221,8 +3337,21 @@
       <c r="O42" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="T42" s="5">
+        <v>5</v>
+      </c>
+      <c r="U42">
+        <v>7269.9650000000001</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>508.89754999999997</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="12:23" ht="15.75">
       <c r="L43">
         <v>14</v>
       </c>
@@ -3236,8 +3365,21 @@
       <c r="O43" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="T43" s="5">
+        <v>6</v>
+      </c>
+      <c r="U43">
+        <v>8083.7669999999998</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="1"/>
+        <v>565.86368999999991</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="12:23" ht="15.75">
       <c r="L44">
         <v>15</v>
       </c>
@@ -3251,8 +3393,21 @@
       <c r="O44" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="T44" s="5">
+        <v>7</v>
+      </c>
+      <c r="U44">
+        <v>15272.352000000001</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="1"/>
+        <v>1069.0646400000001</v>
+      </c>
+      <c r="W44" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="12:23" ht="15.75">
       <c r="L45">
         <v>16</v>
       </c>
@@ -3266,8 +3421,21 @@
       <c r="O45" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="T45" s="5">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>15353.733</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="1"/>
+        <v>1074.7613100000001</v>
+      </c>
+      <c r="W45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="12:23" ht="15.75">
       <c r="L46">
         <v>17</v>
       </c>
@@ -3281,8 +3449,21 @@
       <c r="O46" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="T46" s="5">
+        <v>2</v>
+      </c>
+      <c r="U46">
+        <v>16384.548999999999</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="1"/>
+        <v>1146.9184299999999</v>
+      </c>
+      <c r="W46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="12:23" ht="15.75">
       <c r="L47">
         <v>18</v>
       </c>
@@ -3296,8 +3477,21 @@
       <c r="O47" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="12:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="T47" s="5">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>16384.548999999999</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="1"/>
+        <v>1146.9184299999999</v>
+      </c>
+      <c r="W47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="12:23" ht="15.75">
       <c r="L48">
         <v>19</v>
       </c>
@@ -3311,8 +3505,21 @@
       <c r="O48" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="12:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="T48" s="5">
+        <v>4</v>
+      </c>
+      <c r="U48">
+        <v>16113.281000000001</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="1"/>
+        <v>1127.9296700000002</v>
+      </c>
+      <c r="W48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="12:23" ht="15.75">
       <c r="L49">
         <v>20</v>
       </c>
@@ -3326,8 +3533,21 @@
       <c r="O49" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="12:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="T49" s="5">
+        <v>5</v>
+      </c>
+      <c r="U49">
+        <v>17116.97</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="1"/>
+        <v>1198.1879000000001</v>
+      </c>
+      <c r="W49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="12:23" ht="15.75">
       <c r="L50">
         <v>21</v>
       </c>
@@ -3341,8 +3561,21 @@
       <c r="O50" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="12:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="T50" s="5">
+        <v>6</v>
+      </c>
+      <c r="U50">
+        <v>25146.484</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="1"/>
+        <v>1760.2538800000002</v>
+      </c>
+      <c r="W50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="12:23" ht="15.75">
       <c r="L51">
         <v>22</v>
       </c>
@@ -3356,8 +3589,21 @@
       <c r="O51" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="12:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="T51" s="5">
+        <v>7</v>
+      </c>
+      <c r="U51">
+        <v>25661.892</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="1"/>
+        <v>1796.3324399999999</v>
+      </c>
+      <c r="W51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="12:23" ht="15.75">
       <c r="L52">
         <v>23</v>
       </c>
@@ -3371,8 +3617,21 @@
       <c r="O52" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="12:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="T52" s="5">
+        <v>8</v>
+      </c>
+      <c r="U52">
+        <v>22732.205000000002</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="1"/>
+        <v>1591.2543500000002</v>
+      </c>
+      <c r="W52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="12:23" ht="15.75">
       <c r="L53">
         <v>24</v>
       </c>
@@ -3387,7 +3646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="12:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="12:23" ht="15.75">
       <c r="L54">
         <v>25</v>
       </c>
